--- a/Project Documentation/Capstone Documents/Hagerman_Kendrick_Budget.xlsx
+++ b/Project Documentation/Capstone Documents/Hagerman_Kendrick_Budget.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -271,49 +271,49 @@
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -628,7 +628,7 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D11" sqref="D11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,7 +638,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -687,7 +687,7 @@
       <c r="W1" s="6"/>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -712,7 +712,7 @@
       <c r="W2" s="6"/>
     </row>
     <row r="3" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -761,7 +761,7 @@
       <c r="W3" s="6"/>
     </row>
     <row r="4" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -786,7 +786,7 @@
       <c r="W4" s="6"/>
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="6">
@@ -836,7 +836,7 @@
       <c r="W5" s="6"/>
     </row>
     <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -861,7 +861,7 @@
       <c r="W6" s="6"/>
     </row>
     <row r="7" spans="1:23" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="6">
@@ -911,257 +911,263 @@
       <c r="W7" s="6"/>
     </row>
     <row r="8" spans="1:23" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
     </row>
     <row r="9" spans="1:23" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="8">
         <f>SUM(B5:C8)</f>
         <v>53</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="8">
+      <c r="C9" s="8"/>
+      <c r="D9" s="12">
         <f>SUM(D5:E8)</f>
         <v>30</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12">
         <f>SUM(F5:G8)</f>
         <v>25</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="4">
+      <c r="G9" s="12"/>
+      <c r="H9" s="14">
         <f>SUM(H5:I8)</f>
         <v>10</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="8">
+      <c r="I9" s="14"/>
+      <c r="J9" s="12">
         <f t="shared" ref="J9" si="0">SUM(J5:K8)</f>
         <v>40</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="4">
+      <c r="K9" s="12"/>
+      <c r="L9" s="14">
         <f t="shared" ref="L9" si="1">SUM(L5:M8)</f>
         <v>20</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="8">
+      <c r="M9" s="14"/>
+      <c r="N9" s="12">
         <f t="shared" ref="N9" si="2">SUM(N5:O8)</f>
         <v>40</v>
       </c>
-      <c r="O9" s="8"/>
-      <c r="P9" s="4">
+      <c r="O9" s="12"/>
+      <c r="P9" s="14">
         <f t="shared" ref="P9" si="3">SUM(P5:Q8)</f>
         <v>20</v>
       </c>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4">
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14">
         <f t="shared" ref="R9" si="4">SUM(R5:S8)</f>
         <v>23</v>
       </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4">
+      <c r="S9" s="14"/>
+      <c r="T9" s="14">
         <f t="shared" ref="T9" si="5">SUM(T5:U8)</f>
         <v>20</v>
       </c>
-      <c r="U9" s="4"/>
-      <c r="V9" s="8">
+      <c r="U9" s="14"/>
+      <c r="V9" s="12">
         <f>SUM(B9:U10)</f>
         <v>281</v>
       </c>
-      <c r="W9" s="8"/>
+      <c r="W9" s="12"/>
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="2">
+      <c r="B11" s="9">
+        <v>23</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9">
+        <v>15</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9">
+        <v>45</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="15">
         <f>SUM(B11:U12)</f>
-        <v>0</v>
-      </c>
-      <c r="W11" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="W11" s="15"/>
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="3">
         <f>B7*30</f>
         <v>1500</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15">
-        <f t="shared" ref="D13:W13" si="6">D7*30</f>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
+        <f t="shared" ref="D13" si="6">D7*30</f>
         <v>600</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15">
-        <f t="shared" ref="F13:W13" si="7">F7*30</f>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3">
+        <f t="shared" ref="F13" si="7">F7*30</f>
         <v>750</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15">
-        <f t="shared" ref="H13:W13" si="8">H7*30</f>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
+        <f t="shared" ref="H13" si="8">H7*30</f>
         <v>300</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15">
-        <f t="shared" ref="J13:W13" si="9">J7*30</f>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3">
+        <f t="shared" ref="J13" si="9">J7*30</f>
         <v>1200</v>
       </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15">
-        <f t="shared" ref="L13:W13" si="10">L7*30</f>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3">
+        <f t="shared" ref="L13" si="10">L7*30</f>
         <v>600</v>
       </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15">
-        <f t="shared" ref="N13:W13" si="11">N7*30</f>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3">
+        <f t="shared" ref="N13" si="11">N7*30</f>
         <v>1200</v>
       </c>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15">
-        <f t="shared" ref="P13:W13" si="12">P7*30</f>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3">
+        <f t="shared" ref="P13" si="12">P7*30</f>
         <v>600</v>
       </c>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15">
-        <f t="shared" ref="R13:W13" si="13">R7*30</f>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3">
+        <f t="shared" ref="R13" si="13">R7*30</f>
         <v>450</v>
       </c>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15">
-        <f t="shared" ref="T13:W13" si="14">T7*30</f>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3">
+        <f t="shared" ref="T13" si="14">T7*30</f>
         <v>300</v>
       </c>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15">
+      <c r="U13" s="3"/>
+      <c r="V13" s="3">
         <f>SUM(B13:U14)</f>
         <v>7500</v>
       </c>
-      <c r="W13" s="15"/>
+      <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:23" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
     </row>
     <row r="15" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="1"/>
@@ -1171,18 +1177,62 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="T13:U14"/>
-    <mergeCell ref="V13:W14"/>
-    <mergeCell ref="J13:K14"/>
-    <mergeCell ref="L13:M14"/>
-    <mergeCell ref="N13:O14"/>
-    <mergeCell ref="P13:Q14"/>
-    <mergeCell ref="R13:S14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="V11:W12"/>
+    <mergeCell ref="T9:U10"/>
+    <mergeCell ref="V1:W2"/>
+    <mergeCell ref="V3:W4"/>
+    <mergeCell ref="V5:W6"/>
+    <mergeCell ref="V7:W8"/>
+    <mergeCell ref="V9:W10"/>
+    <mergeCell ref="T3:U4"/>
+    <mergeCell ref="T5:U6"/>
+    <mergeCell ref="T7:U8"/>
+    <mergeCell ref="T11:U12"/>
+    <mergeCell ref="R9:S10"/>
+    <mergeCell ref="R3:S4"/>
+    <mergeCell ref="R5:S6"/>
+    <mergeCell ref="R7:S8"/>
+    <mergeCell ref="R11:S12"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="P11:Q12"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="J7:K8"/>
+    <mergeCell ref="L7:M8"/>
+    <mergeCell ref="N7:O8"/>
+    <mergeCell ref="F9:G10"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="N9:O10"/>
+    <mergeCell ref="P9:Q10"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="H5:I6"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="L5:M6"/>
+    <mergeCell ref="N5:O6"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="L11:M12"/>
+    <mergeCell ref="N11:O12"/>
+    <mergeCell ref="P3:Q4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="P5:Q6"/>
+    <mergeCell ref="P7:Q8"/>
     <mergeCell ref="R1:S2"/>
     <mergeCell ref="T1:U2"/>
     <mergeCell ref="A11:A12"/>
@@ -1199,62 +1249,18 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C2"/>
     <mergeCell ref="F1:G2"/>
-    <mergeCell ref="P3:Q4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="F5:G6"/>
-    <mergeCell ref="F7:G8"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="N3:O4"/>
-    <mergeCell ref="H5:I6"/>
-    <mergeCell ref="J5:K6"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="N5:O6"/>
-    <mergeCell ref="P5:Q6"/>
-    <mergeCell ref="P7:Q8"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="L11:M12"/>
-    <mergeCell ref="N11:O12"/>
-    <mergeCell ref="P11:Q12"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="J7:K8"/>
-    <mergeCell ref="L7:M8"/>
-    <mergeCell ref="N7:O8"/>
-    <mergeCell ref="F9:G10"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="R9:S10"/>
-    <mergeCell ref="R3:S4"/>
-    <mergeCell ref="R5:S6"/>
-    <mergeCell ref="R7:S8"/>
-    <mergeCell ref="R11:S12"/>
-    <mergeCell ref="H9:I10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="N9:O10"/>
-    <mergeCell ref="P9:Q10"/>
-    <mergeCell ref="V11:W12"/>
-    <mergeCell ref="T9:U10"/>
-    <mergeCell ref="V1:W2"/>
-    <mergeCell ref="V3:W4"/>
-    <mergeCell ref="V5:W6"/>
-    <mergeCell ref="V7:W8"/>
-    <mergeCell ref="V9:W10"/>
-    <mergeCell ref="T3:U4"/>
-    <mergeCell ref="T5:U6"/>
-    <mergeCell ref="T7:U8"/>
-    <mergeCell ref="T11:U12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="T13:U14"/>
+    <mergeCell ref="V13:W14"/>
+    <mergeCell ref="J13:K14"/>
+    <mergeCell ref="L13:M14"/>
+    <mergeCell ref="N13:O14"/>
+    <mergeCell ref="P13:Q14"/>
+    <mergeCell ref="R13:S14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
